--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/F7-F3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/F7-F3.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.341690333333333</v>
+        <v>1.773585333333333</v>
       </c>
       <c r="H2">
-        <v>4.025071</v>
+        <v>5.320756</v>
       </c>
       <c r="I2">
-        <v>0.05354309921306733</v>
+        <v>0.3163248465685771</v>
       </c>
       <c r="J2">
-        <v>0.05354309921306735</v>
+        <v>0.3163248465685771</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.9880003333333334</v>
+        <v>1.294277666666667</v>
       </c>
       <c r="N2">
-        <v>2.964001</v>
+        <v>3.882833</v>
       </c>
       <c r="O2">
-        <v>0.02006000579181713</v>
+        <v>0.02669869520209519</v>
       </c>
       <c r="P2">
-        <v>0.02006000579181712</v>
+        <v>0.02669869520209519</v>
       </c>
       <c r="Q2">
-        <v>1.325590496563444</v>
+        <v>2.295511886860889</v>
       </c>
       <c r="R2">
-        <v>11.930314469071</v>
+        <v>20.659606981748</v>
       </c>
       <c r="S2">
-        <v>0.00107407488032597</v>
+        <v>0.008445460663383968</v>
       </c>
       <c r="T2">
-        <v>0.00107407488032597</v>
+        <v>0.008445460663383966</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>25</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.341690333333333</v>
+        <v>1.773585333333333</v>
       </c>
       <c r="H3">
-        <v>4.025071</v>
+        <v>5.320756</v>
       </c>
       <c r="I3">
-        <v>0.05354309921306733</v>
+        <v>0.3163248465685771</v>
       </c>
       <c r="J3">
-        <v>0.05354309921306735</v>
+        <v>0.3163248465685771</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>138.307545</v>
       </c>
       <c r="O3">
-        <v>0.9360489938269279</v>
+        <v>0.9510146298089733</v>
       </c>
       <c r="P3">
-        <v>0.9360489938269277</v>
+        <v>0.9510146298089732</v>
       </c>
       <c r="Q3">
-        <v>61.855298717855</v>
+        <v>81.76674443378</v>
       </c>
       <c r="R3">
-        <v>556.697688460695</v>
+        <v>735.90069990402</v>
       </c>
       <c r="S3">
-        <v>0.05011896414476705</v>
+        <v>0.3008295568587956</v>
       </c>
       <c r="T3">
-        <v>0.05011896414476705</v>
+        <v>0.3008295568587956</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.341690333333333</v>
+        <v>1.773585333333333</v>
       </c>
       <c r="H4">
-        <v>4.025071</v>
+        <v>5.320756</v>
       </c>
       <c r="I4">
-        <v>0.05354309921306733</v>
+        <v>0.3163248465685771</v>
       </c>
       <c r="J4">
-        <v>0.05354309921306735</v>
+        <v>0.3163248465685771</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.6702083333333334</v>
+        <v>0.1528983333333333</v>
       </c>
       <c r="N4">
-        <v>2.010625</v>
+        <v>0.458695</v>
       </c>
       <c r="O4">
-        <v>0.01360767055921112</v>
+        <v>0.003154026453294555</v>
       </c>
       <c r="P4">
-        <v>0.01360767055921112</v>
+        <v>0.003154026453294555</v>
       </c>
       <c r="Q4">
-        <v>0.8992120421527778</v>
+        <v>0.2711782414911111</v>
       </c>
       <c r="R4">
-        <v>8.092908379375</v>
+        <v>2.44060417342</v>
       </c>
       <c r="S4">
-        <v>0.0007285968548105764</v>
+        <v>0.0009976969339116335</v>
       </c>
       <c r="T4">
-        <v>0.0007285968548105765</v>
+        <v>0.0009976969339116333</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>26</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1.341690333333333</v>
+        <v>1.773585333333333</v>
       </c>
       <c r="H5">
-        <v>4.025071</v>
+        <v>5.320756</v>
       </c>
       <c r="I5">
-        <v>0.05354309921306733</v>
+        <v>0.3163248465685771</v>
       </c>
       <c r="J5">
-        <v>0.05354309921306735</v>
+        <v>0.3163248465685771</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.6972100000000001</v>
+        <v>0.698547</v>
       </c>
       <c r="N5">
-        <v>2.09163</v>
+        <v>2.095641</v>
       </c>
       <c r="O5">
-        <v>0.01415590275250867</v>
+        <v>0.0144098085887325</v>
       </c>
       <c r="P5">
-        <v>0.01415590275250867</v>
+        <v>0.0144098085887325</v>
       </c>
       <c r="Q5">
-        <v>0.9354399173033334</v>
+        <v>1.238932713844</v>
       </c>
       <c r="R5">
-        <v>8.41895925573</v>
+        <v>11.150394424596</v>
       </c>
       <c r="S5">
-        <v>0.0007579509055281049</v>
+        <v>0.004558180490913373</v>
       </c>
       <c r="T5">
-        <v>0.000757950905528105</v>
+        <v>0.004558180490913372</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>22</v>
       </c>
       <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1.773585333333333</v>
+      </c>
+      <c r="H6">
+        <v>5.320756</v>
+      </c>
+      <c r="I6">
+        <v>0.3163248465685771</v>
+      </c>
+      <c r="J6">
+        <v>0.3163248465685771</v>
+      </c>
+      <c r="K6">
         <v>2</v>
       </c>
-      <c r="F6">
+      <c r="L6">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G6">
-        <v>1.341690333333333</v>
-      </c>
-      <c r="H6">
-        <v>4.025071</v>
-      </c>
-      <c r="I6">
-        <v>0.05354309921306733</v>
-      </c>
-      <c r="J6">
-        <v>0.05354309921306735</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
       <c r="M6">
-        <v>0.794312</v>
+        <v>0.22895</v>
       </c>
       <c r="N6">
-        <v>2.382936</v>
+        <v>0.68685</v>
       </c>
       <c r="O6">
-        <v>0.01612742706953525</v>
+        <v>0.004722839946904511</v>
       </c>
       <c r="P6">
-        <v>0.01612742706953524</v>
+        <v>0.004722839946904511</v>
       </c>
       <c r="Q6">
-        <v>1.065720732050667</v>
+        <v>0.4060623620666666</v>
       </c>
       <c r="R6">
-        <v>9.591486588455998</v>
+        <v>3.6545612586</v>
       </c>
       <c r="S6">
-        <v>0.0008635124276356334</v>
+        <v>0.001493951621572516</v>
       </c>
       <c r="T6">
-        <v>0.0008635124276356334</v>
+        <v>0.001493951621572516</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>15.617696</v>
+        <v>1.759984333333334</v>
       </c>
       <c r="H7">
-        <v>46.853088</v>
+        <v>5.279953000000001</v>
       </c>
       <c r="I7">
-        <v>0.6232584566142001</v>
+        <v>0.3138990629553956</v>
       </c>
       <c r="J7">
-        <v>0.6232584566142001</v>
+        <v>0.3138990629553955</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.9880003333333334</v>
+        <v>1.294277666666667</v>
       </c>
       <c r="N7">
-        <v>2.964001</v>
+        <v>3.882833</v>
       </c>
       <c r="O7">
-        <v>0.02006000579181713</v>
+        <v>0.02669869520209519</v>
       </c>
       <c r="P7">
-        <v>0.02006000579181712</v>
+        <v>0.02669869520209519</v>
       </c>
       <c r="Q7">
-        <v>15.43028885389867</v>
+        <v>2.277908416316556</v>
       </c>
       <c r="R7">
-        <v>138.872599685088</v>
+        <v>20.501175746849</v>
       </c>
       <c r="S7">
-        <v>0.01250256824947986</v>
+        <v>0.008380695406069397</v>
       </c>
       <c r="T7">
-        <v>0.01250256824947986</v>
+        <v>0.008380695406069394</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>15.617696</v>
+        <v>1.759984333333334</v>
       </c>
       <c r="H8">
-        <v>46.853088</v>
+        <v>5.279953000000001</v>
       </c>
       <c r="I8">
-        <v>0.6232584566142001</v>
+        <v>0.3138990629553956</v>
       </c>
       <c r="J8">
-        <v>0.6232584566142001</v>
+        <v>0.3138990629553955</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>138.307545</v>
       </c>
       <c r="O8">
-        <v>0.9360489938269279</v>
+        <v>0.9510146298089733</v>
       </c>
       <c r="P8">
-        <v>0.9360489938269277</v>
+        <v>0.9510146298089732</v>
       </c>
       <c r="Q8">
-        <v>720.01506410544</v>
+        <v>81.13970412726502</v>
       </c>
       <c r="R8">
-        <v>6480.13557694896</v>
+        <v>730.2573371453851</v>
       </c>
       <c r="S8">
-        <v>0.583400451207846</v>
+        <v>0.2985226011539092</v>
       </c>
       <c r="T8">
-        <v>0.5834004512078459</v>
+        <v>0.2985226011539091</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,46 +974,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>15.617696</v>
+        <v>1.759984333333334</v>
       </c>
       <c r="H9">
-        <v>46.853088</v>
+        <v>5.279953000000001</v>
       </c>
       <c r="I9">
-        <v>0.6232584566142001</v>
+        <v>0.3138990629553956</v>
       </c>
       <c r="J9">
-        <v>0.6232584566142001</v>
+        <v>0.3138990629553955</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.6702083333333334</v>
+        <v>0.1528983333333333</v>
       </c>
       <c r="N9">
-        <v>2.010625</v>
+        <v>0.458695</v>
       </c>
       <c r="O9">
-        <v>0.01360767055921112</v>
+        <v>0.003154026453294555</v>
       </c>
       <c r="P9">
-        <v>0.01360767055921112</v>
+        <v>0.003154026453294555</v>
       </c>
       <c r="Q9">
-        <v>10.46711000666667</v>
+        <v>0.2690986712594445</v>
       </c>
       <c r="R9">
-        <v>94.20399006000001</v>
+        <v>2.421888041335</v>
       </c>
       <c r="S9">
-        <v>0.00848109575084841</v>
+        <v>0.0009900459482256904</v>
       </c>
       <c r="T9">
-        <v>0.00848109575084841</v>
+        <v>0.0009900459482256902</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>15.617696</v>
+        <v>1.759984333333334</v>
       </c>
       <c r="H10">
-        <v>46.853088</v>
+        <v>5.279953000000001</v>
       </c>
       <c r="I10">
-        <v>0.6232584566142001</v>
+        <v>0.3138990629553956</v>
       </c>
       <c r="J10">
-        <v>0.6232584566142001</v>
+        <v>0.3138990629553955</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.6972100000000001</v>
+        <v>0.698547</v>
       </c>
       <c r="N10">
-        <v>2.09163</v>
+        <v>2.095641</v>
       </c>
       <c r="O10">
-        <v>0.01415590275250867</v>
+        <v>0.0144098085887325</v>
       </c>
       <c r="P10">
-        <v>0.01415590275250867</v>
+        <v>0.0144098085887325</v>
       </c>
       <c r="Q10">
-        <v>10.88881382816</v>
+        <v>1.229431776097</v>
       </c>
       <c r="R10">
-        <v>97.99932445344001</v>
+        <v>11.064885984873</v>
       </c>
       <c r="S10">
-        <v>0.008822786101509264</v>
+        <v>0.004523225413369743</v>
       </c>
       <c r="T10">
-        <v>0.008822786101509262</v>
+        <v>0.004523225413369741</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>15.617696</v>
+        <v>1.759984333333334</v>
       </c>
       <c r="H11">
-        <v>46.853088</v>
+        <v>5.279953000000001</v>
       </c>
       <c r="I11">
-        <v>0.6232584566142001</v>
+        <v>0.3138990629553956</v>
       </c>
       <c r="J11">
-        <v>0.6232584566142001</v>
+        <v>0.3138990629553955</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.794312</v>
+        <v>0.22895</v>
       </c>
       <c r="N11">
-        <v>2.382936</v>
+        <v>0.68685</v>
       </c>
       <c r="O11">
-        <v>0.01612742706953525</v>
+        <v>0.004722839946904511</v>
       </c>
       <c r="P11">
-        <v>0.01612742706953524</v>
+        <v>0.004722839946904511</v>
       </c>
       <c r="Q11">
-        <v>12.405323345152</v>
+        <v>0.4029484131166667</v>
       </c>
       <c r="R11">
-        <v>111.647910106368</v>
+        <v>3.62653571805</v>
       </c>
       <c r="S11">
-        <v>0.01005155530451661</v>
+        <v>0.001482495033821636</v>
       </c>
       <c r="T11">
-        <v>0.01005155530451661</v>
+        <v>0.001482495033821636</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>8.098751</v>
+        <v>2.073278333333333</v>
       </c>
       <c r="H12">
-        <v>24.296253</v>
+        <v>6.219835</v>
       </c>
       <c r="I12">
-        <v>0.3231984441727326</v>
+        <v>0.3697760904760274</v>
       </c>
       <c r="J12">
-        <v>0.3231984441727326</v>
+        <v>0.3697760904760274</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.9880003333333334</v>
+        <v>1.294277666666667</v>
       </c>
       <c r="N12">
-        <v>2.964001</v>
+        <v>3.882833</v>
       </c>
       <c r="O12">
-        <v>0.02006000579181713</v>
+        <v>0.02669869520209519</v>
       </c>
       <c r="P12">
-        <v>0.02006000579181712</v>
+        <v>0.02669869520209519</v>
       </c>
       <c r="Q12">
-        <v>8.001568687583667</v>
+        <v>2.683397843617222</v>
       </c>
       <c r="R12">
-        <v>72.01411818825301</v>
+        <v>24.150580592555</v>
       </c>
       <c r="S12">
-        <v>0.0064833626620113</v>
+        <v>0.009872539132641829</v>
       </c>
       <c r="T12">
-        <v>0.0064833626620113</v>
+        <v>0.009872539132641829</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>8.098751</v>
+        <v>2.073278333333333</v>
       </c>
       <c r="H13">
-        <v>24.296253</v>
+        <v>6.219835</v>
       </c>
       <c r="I13">
-        <v>0.3231984441727326</v>
+        <v>0.3697760904760274</v>
       </c>
       <c r="J13">
-        <v>0.3231984441727326</v>
+        <v>0.3697760904760274</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>138.307545</v>
       </c>
       <c r="O13">
-        <v>0.9360489938269279</v>
+        <v>0.9510146298089733</v>
       </c>
       <c r="P13">
-        <v>0.9360489938269277</v>
+        <v>0.9510146298089732</v>
       </c>
       <c r="Q13">
-        <v>373.3727894587651</v>
+        <v>95.58334546167499</v>
       </c>
       <c r="R13">
-        <v>3360.355105128885</v>
+        <v>860.2501091550751</v>
       </c>
       <c r="S13">
-        <v>0.3025295784743148</v>
+        <v>0.3516624717962686</v>
       </c>
       <c r="T13">
-        <v>0.3025295784743149</v>
+        <v>0.3516624717962686</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>8.098751</v>
+        <v>2.073278333333333</v>
       </c>
       <c r="H14">
-        <v>24.296253</v>
+        <v>6.219835</v>
       </c>
       <c r="I14">
-        <v>0.3231984441727326</v>
+        <v>0.3697760904760274</v>
       </c>
       <c r="J14">
-        <v>0.3231984441727326</v>
+        <v>0.3697760904760274</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.6702083333333334</v>
+        <v>0.1528983333333333</v>
       </c>
       <c r="N14">
-        <v>2.010625</v>
+        <v>0.458695</v>
       </c>
       <c r="O14">
-        <v>0.01360767055921112</v>
+        <v>0.003154026453294555</v>
       </c>
       <c r="P14">
-        <v>0.01360767055921112</v>
+        <v>0.003154026453294555</v>
       </c>
       <c r="Q14">
-        <v>5.427850409791668</v>
+        <v>0.3170008017027777</v>
       </c>
       <c r="R14">
-        <v>48.850653688125</v>
+        <v>2.853007215325</v>
       </c>
       <c r="S14">
-        <v>0.004397977953552131</v>
+        <v>0.001166283571157231</v>
       </c>
       <c r="T14">
-        <v>0.004397977953552131</v>
+        <v>0.001166283571157231</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>8.098751</v>
+        <v>2.073278333333333</v>
       </c>
       <c r="H15">
-        <v>24.296253</v>
+        <v>6.219835</v>
       </c>
       <c r="I15">
-        <v>0.3231984441727326</v>
+        <v>0.3697760904760274</v>
       </c>
       <c r="J15">
-        <v>0.3231984441727326</v>
+        <v>0.3697760904760274</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.6972100000000001</v>
+        <v>0.698547</v>
       </c>
       <c r="N15">
-        <v>2.09163</v>
+        <v>2.095641</v>
       </c>
       <c r="O15">
-        <v>0.01415590275250867</v>
+        <v>0.0144098085887325</v>
       </c>
       <c r="P15">
-        <v>0.01415590275250867</v>
+        <v>0.0144098085887325</v>
       </c>
       <c r="Q15">
-        <v>5.64653018471</v>
+        <v>1.448282359915</v>
       </c>
       <c r="R15">
-        <v>50.81877166239001</v>
+        <v>13.034541239235</v>
       </c>
       <c r="S15">
-        <v>0.004575165745471306</v>
+        <v>0.005328402684449386</v>
       </c>
       <c r="T15">
-        <v>0.004575165745471307</v>
+        <v>0.005328402684449385</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>8.098751</v>
+        <v>2.073278333333333</v>
       </c>
       <c r="H16">
-        <v>24.296253</v>
+        <v>6.219835</v>
       </c>
       <c r="I16">
-        <v>0.3231984441727326</v>
+        <v>0.3697760904760274</v>
       </c>
       <c r="J16">
-        <v>0.3231984441727326</v>
+        <v>0.3697760904760274</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.794312</v>
+        <v>0.22895</v>
       </c>
       <c r="N16">
-        <v>2.382936</v>
+        <v>0.68685</v>
       </c>
       <c r="O16">
-        <v>0.01612742706953525</v>
+        <v>0.004722839946904511</v>
       </c>
       <c r="P16">
-        <v>0.01612742706953524</v>
+        <v>0.004722839946904511</v>
       </c>
       <c r="Q16">
-        <v>6.432935104312</v>
+        <v>0.4746770744166666</v>
       </c>
       <c r="R16">
-        <v>57.896415938808</v>
+        <v>4.272093669749999</v>
       </c>
       <c r="S16">
-        <v>0.005212359337383003</v>
+        <v>0.001746393291510359</v>
       </c>
       <c r="T16">
-        <v>0.005212359337383003</v>
+        <v>0.001746393291510359</v>
       </c>
     </row>
   </sheetData>
